--- a/Code/Results/Cases/Case_5_136/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_136/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8031530656105019</v>
+        <v>0.2626439540334502</v>
       </c>
       <c r="C2">
-        <v>0.1394876803217926</v>
+        <v>0.04467084256702947</v>
       </c>
       <c r="D2">
-        <v>0.06209140578480543</v>
+        <v>0.02909498636159213</v>
       </c>
       <c r="E2">
-        <v>0.3361519779243878</v>
+        <v>0.1616557201687172</v>
       </c>
       <c r="F2">
-        <v>0.4627096534770416</v>
+        <v>0.6761016312668104</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.2523244910408593</v>
+        <v>0.5142466153288936</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8900909318215895</v>
+        <v>0.2759508768186265</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5990857558848219</v>
+        <v>0.2237944772582168</v>
       </c>
       <c r="N2">
-        <v>0.6691213628423618</v>
+        <v>1.393739124543001</v>
       </c>
       <c r="O2">
-        <v>1.320840753976825</v>
+        <v>2.30978727266762</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6992702390071202</v>
+        <v>0.2312670127796537</v>
       </c>
       <c r="C3">
-        <v>0.1229078877909018</v>
+        <v>0.03948503063014641</v>
       </c>
       <c r="D3">
-        <v>0.05571439361082042</v>
+        <v>0.02690771662449265</v>
       </c>
       <c r="E3">
-        <v>0.2924777773371829</v>
+        <v>0.1506542875430057</v>
       </c>
       <c r="F3">
-        <v>0.435188029978967</v>
+        <v>0.6739632195842589</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.2515455513159921</v>
+        <v>0.5177883982839724</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.776313753973227</v>
+        <v>0.2412588829804037</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5187421690662646</v>
+        <v>0.2014137900475674</v>
       </c>
       <c r="N3">
-        <v>0.7054736937886672</v>
+        <v>1.409158980308042</v>
       </c>
       <c r="O3">
-        <v>1.275077932519096</v>
+        <v>2.315259363369634</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6355344610799136</v>
+        <v>0.2119921810154608</v>
       </c>
       <c r="C4">
-        <v>0.1127319071949984</v>
+        <v>0.03628295256983449</v>
       </c>
       <c r="D4">
-        <v>0.05178310933951025</v>
+        <v>0.02555262494102806</v>
       </c>
       <c r="E4">
-        <v>0.2661328116176449</v>
+        <v>0.1440088162510591</v>
       </c>
       <c r="F4">
-        <v>0.4191414972645831</v>
+        <v>0.6730606114817874</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.251602433017279</v>
+        <v>0.5202348931081247</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7064963363416155</v>
+        <v>0.2199201065871534</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4698066342716416</v>
+        <v>0.1877455117827509</v>
       </c>
       <c r="N4">
-        <v>0.7287700081056392</v>
+        <v>1.41910945489443</v>
       </c>
       <c r="O4">
-        <v>1.249669935444999</v>
+        <v>2.319938753767772</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6095657327862227</v>
+        <v>0.204135634439325</v>
       </c>
       <c r="C5">
-        <v>0.1085844079152878</v>
+        <v>0.03497359817400536</v>
       </c>
       <c r="D5">
-        <v>0.05017687924841852</v>
+        <v>0.02499740016418173</v>
       </c>
       <c r="E5">
-        <v>0.2555028229897474</v>
+        <v>0.1413280663308214</v>
       </c>
       <c r="F5">
-        <v>0.4128050585194103</v>
+        <v>0.6727960059232245</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.2517545814574724</v>
+        <v>0.5213002022678346</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6780463227585329</v>
+        <v>0.2112153133951438</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4499504351346744</v>
+        <v>0.1821940663906929</v>
       </c>
       <c r="N5">
-        <v>0.7385025905128417</v>
+        <v>1.423285683620098</v>
       </c>
       <c r="O5">
-        <v>1.239959128274222</v>
+        <v>2.322177404874537</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6052536650385605</v>
+        <v>0.2028309590987192</v>
       </c>
       <c r="C6">
-        <v>0.107895627616216</v>
+        <v>0.03475591128278666</v>
       </c>
       <c r="D6">
-        <v>0.04990990573174514</v>
+        <v>0.02490502431923147</v>
       </c>
       <c r="E6">
-        <v>0.2537437540616168</v>
+        <v>0.1408845752026266</v>
       </c>
       <c r="F6">
-        <v>0.411764809960296</v>
+        <v>0.6727583028703208</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.251787476142507</v>
+        <v>0.52148122347959</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6733220225321048</v>
+        <v>0.20976935390172</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4466580907819591</v>
+        <v>0.1812733696292668</v>
       </c>
       <c r="N6">
-        <v>0.7401329455048662</v>
+        <v>1.423986470400871</v>
       </c>
       <c r="O6">
-        <v>1.238384554800135</v>
+        <v>2.322569167673052</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6351842314698786</v>
+        <v>0.2118862319836694</v>
       </c>
       <c r="C7">
-        <v>0.1126759776354618</v>
+        <v>0.03626531225560825</v>
       </c>
       <c r="D7">
-        <v>0.05176146446336816</v>
+        <v>0.02554514915100725</v>
       </c>
       <c r="E7">
-        <v>0.2659890397476232</v>
+        <v>0.1439725522974413</v>
       </c>
       <c r="F7">
-        <v>0.4190552361718574</v>
+        <v>0.6730566249812284</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.2516039699658954</v>
+        <v>0.5202489835371331</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7061126569823131</v>
+        <v>0.2198027468574963</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4695385187932573</v>
+        <v>0.1876705681960402</v>
       </c>
       <c r="N7">
-        <v>0.7289003048431051</v>
+        <v>1.419165285756381</v>
       </c>
       <c r="O7">
-        <v>1.249536410963486</v>
+        <v>2.319967601763537</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7673190992381649</v>
+        <v>0.251827357537735</v>
       </c>
       <c r="C8">
-        <v>0.1337690434991288</v>
+        <v>0.04288652456448006</v>
       </c>
       <c r="D8">
-        <v>0.05989573930578018</v>
+        <v>0.02834334347544853</v>
       </c>
       <c r="E8">
-        <v>0.3209874566408217</v>
+        <v>0.157839591933282</v>
       </c>
       <c r="F8">
-        <v>0.4530362644552994</v>
+        <v>0.6752791407177909</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.2519413889160873</v>
+        <v>0.5154113981853996</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8508459007228453</v>
+        <v>0.2639971570717137</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.571292408153802</v>
+        <v>0.2160623391304597</v>
       </c>
       <c r="N8">
-        <v>0.6814492718755669</v>
+        <v>1.3989557066162</v>
       </c>
       <c r="O8">
-        <v>1.304482686445013</v>
+        <v>2.311400157977033</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02722284091621</v>
+        <v>0.3300630182176576</v>
       </c>
       <c r="C9">
-        <v>0.1752499867458397</v>
+        <v>0.0557271054068309</v>
       </c>
       <c r="D9">
-        <v>0.07573377622158972</v>
+        <v>0.03373357094027796</v>
       </c>
       <c r="E9">
-        <v>0.4331911289745989</v>
+        <v>0.1859112902867537</v>
       </c>
       <c r="F9">
-        <v>0.5269839232662292</v>
+        <v>0.6828940875429765</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.2571153592020359</v>
+        <v>0.5080824076853041</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.13546938947465</v>
+        <v>0.3503481696016308</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7746554342219909</v>
+        <v>0.272325380823446</v>
       </c>
       <c r="N9">
-        <v>0.5964340686808993</v>
+        <v>1.363154859714989</v>
       </c>
       <c r="O9">
-        <v>1.435174761226534</v>
+        <v>2.305073390092559</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.219264829046637</v>
+        <v>0.3874736691849989</v>
       </c>
       <c r="C10">
-        <v>0.205927072413715</v>
+        <v>0.06507303656526631</v>
       </c>
       <c r="D10">
-        <v>0.08731947791103778</v>
+        <v>0.03763359301412805</v>
       </c>
       <c r="E10">
-        <v>0.5191994359983596</v>
+        <v>0.2070871077645933</v>
       </c>
       <c r="F10">
-        <v>0.5865854867583877</v>
+        <v>0.6904764574293907</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.2640586233124402</v>
+        <v>0.5040143433520115</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.345781279538215</v>
+        <v>0.4135852775733326</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9274244938388634</v>
+        <v>0.3140283333137504</v>
       </c>
       <c r="N10">
-        <v>0.5392993648172257</v>
+        <v>1.339186956067675</v>
       </c>
       <c r="O10">
-        <v>1.547534308687688</v>
+        <v>2.306819930583089</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.307012893512137</v>
+        <v>0.4135734076582196</v>
       </c>
       <c r="C11">
-        <v>0.2199578237360953</v>
+        <v>0.06930556936252685</v>
       </c>
       <c r="D11">
-        <v>0.09258356289937097</v>
+        <v>0.03939454736510584</v>
       </c>
       <c r="E11">
-        <v>0.5593245448704423</v>
+        <v>0.2168438565598834</v>
       </c>
       <c r="F11">
-        <v>0.6150378782978407</v>
+        <v>0.6943580956012454</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.267992185806154</v>
+        <v>0.5024498549214016</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.441888473572135</v>
+        <v>0.4423064552839833</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9978994641853589</v>
+        <v>0.333081777984404</v>
       </c>
       <c r="N11">
-        <v>0.5145650282891401</v>
+        <v>1.328790374165945</v>
       </c>
       <c r="O11">
-        <v>1.602756801554307</v>
+        <v>2.309005371899985</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.340309216628526</v>
+        <v>0.4234539353992943</v>
       </c>
       <c r="C12">
-        <v>0.2252845501130736</v>
+        <v>0.0709055646759964</v>
       </c>
       <c r="D12">
-        <v>0.09457639386566541</v>
+        <v>0.0400594538467729</v>
       </c>
       <c r="E12">
-        <v>0.5746826469839874</v>
+        <v>0.2205565188960108</v>
       </c>
       <c r="F12">
-        <v>0.6260218411539924</v>
+        <v>0.6958901599160399</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2696014588800786</v>
+        <v>0.5018985859326968</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.478359259083788</v>
+        <v>0.4531754927479881</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.02474944132878</v>
+        <v>0.3403087657652719</v>
       </c>
       <c r="N12">
-        <v>0.5053886790462501</v>
+        <v>1.324926337391293</v>
       </c>
       <c r="O12">
-        <v>1.624309033143987</v>
+        <v>2.310033081221889</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.333135025266699</v>
+        <v>0.42132612258564</v>
       </c>
       <c r="C13">
-        <v>0.2241366944629561</v>
+        <v>0.07056110108889868</v>
       </c>
       <c r="D13">
-        <v>0.09414722142492593</v>
+        <v>0.03991634064090022</v>
       </c>
       <c r="E13">
-        <v>0.5713673951476181</v>
+        <v>0.219756127254243</v>
       </c>
       <c r="F13">
-        <v>0.6236466392523923</v>
+        <v>0.6955574373949815</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.2692494108921224</v>
+        <v>0.5020154801200931</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.470500952467802</v>
+        <v>0.4508349721824345</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.018959219876848</v>
+        <v>0.338751777262658</v>
       </c>
       <c r="N13">
-        <v>0.5073563641937375</v>
+        <v>1.32575528221219</v>
       </c>
       <c r="O13">
-        <v>1.619638051217379</v>
+        <v>2.309802842954412</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.309750764494623</v>
+        <v>0.4143863450374852</v>
       </c>
       <c r="C14">
-        <v>0.2203957681107482</v>
+        <v>0.06943725776656606</v>
       </c>
       <c r="D14">
-        <v>0.09274752355391769</v>
+        <v>0.03944928846368612</v>
       </c>
       <c r="E14">
-        <v>0.5605846668891274</v>
+        <v>0.217148937788572</v>
       </c>
       <c r="F14">
-        <v>0.6159372317146818</v>
+        <v>0.6944828934548326</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.268122132956627</v>
+        <v>0.5024036764404904</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.444887315436745</v>
+        <v>0.4432008015512565</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.000105037642001</v>
+        <v>0.3336761089549825</v>
       </c>
       <c r="N14">
-        <v>0.5138062208330247</v>
+        <v>1.328471015558748</v>
       </c>
       <c r="O14">
-        <v>1.604516779347676</v>
+        <v>2.309085910598185</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.295436472039825</v>
+        <v>0.4101351419607226</v>
       </c>
       <c r="C15">
-        <v>0.2181061962595834</v>
+        <v>0.0687485088501063</v>
       </c>
       <c r="D15">
-        <v>0.09189010534891651</v>
+        <v>0.03916295337283771</v>
       </c>
       <c r="E15">
-        <v>0.5540018566667371</v>
+        <v>0.2155543080411846</v>
       </c>
       <c r="F15">
-        <v>0.6112428272974242</v>
+        <v>0.693832800797658</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.26744748857692</v>
+        <v>0.5026468201459799</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.429208709409437</v>
+        <v>0.4385237194111937</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9885781621131144</v>
+        <v>0.330568659983399</v>
       </c>
       <c r="N15">
-        <v>0.5177819762656706</v>
+        <v>1.330143979919693</v>
       </c>
       <c r="O15">
-        <v>1.595339533248932</v>
+        <v>2.3086728351023</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.213539113937429</v>
+        <v>0.3857676135763484</v>
       </c>
       <c r="C16">
-        <v>0.2050118780875607</v>
+        <v>0.06479604494694513</v>
       </c>
       <c r="D16">
-        <v>0.08697535947656121</v>
+        <v>0.037518242391954</v>
       </c>
       <c r="E16">
-        <v>0.5165989400885422</v>
+        <v>0.2064519885075526</v>
       </c>
       <c r="F16">
-        <v>0.5847544393978907</v>
+        <v>0.6902314835554364</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.2638178456539571</v>
+        <v>0.5041223457639923</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.339510420826855</v>
+        <v>0.4117073206468547</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9228403229557145</v>
+        <v>0.3127848063828509</v>
       </c>
       <c r="N16">
-        <v>0.5409418788520912</v>
+        <v>1.339876597074315</v>
       </c>
       <c r="O16">
-        <v>1.544012255968852</v>
+        <v>2.306705105875835</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.163405419633108</v>
+        <v>0.3708143157547568</v>
       </c>
       <c r="C17">
-        <v>0.1970001630597977</v>
+        <v>0.06236644434325456</v>
       </c>
       <c r="D17">
-        <v>0.08395894359465927</v>
+        <v>0.03650586517537846</v>
       </c>
       <c r="E17">
-        <v>0.4939230942300696</v>
+        <v>0.2008998488276035</v>
       </c>
       <c r="F17">
-        <v>0.5688594892173029</v>
+        <v>0.6881329327389807</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.2617953924413001</v>
+        <v>0.5051008290861496</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.28460487822494</v>
+        <v>0.3952442840498804</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8827781423205963</v>
+        <v>0.3018961272557021</v>
       </c>
       <c r="N17">
-        <v>0.5554779911679693</v>
+        <v>1.345977037666801</v>
       </c>
       <c r="O17">
-        <v>1.51361149704411</v>
+        <v>2.305854301370744</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.134605497906051</v>
+        <v>0.3622120355556433</v>
       </c>
       <c r="C18">
-        <v>0.1923989763894838</v>
+        <v>0.06096721865567645</v>
       </c>
       <c r="D18">
-        <v>0.08222336527046537</v>
+        <v>0.03592233347639251</v>
       </c>
       <c r="E18">
-        <v>0.4809733436828907</v>
+        <v>0.1977180424039346</v>
       </c>
       <c r="F18">
-        <v>0.5598421112475691</v>
+        <v>0.6869665997379855</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.2607045538746426</v>
+        <v>0.5056905536538139</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.253064701426467</v>
+        <v>0.3857709079174185</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8598262353639541</v>
+        <v>0.2956410188877854</v>
       </c>
       <c r="N18">
-        <v>0.5639564545922358</v>
+        <v>1.349533522306449</v>
       </c>
       <c r="O18">
-        <v>1.496509422206827</v>
+        <v>2.305495855276575</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.124860100806501</v>
+        <v>0.3592992016785104</v>
       </c>
       <c r="C19">
-        <v>0.1908422063529116</v>
+        <v>0.06049315986844306</v>
       </c>
       <c r="D19">
-        <v>0.08163561242393769</v>
+        <v>0.035724547847515</v>
       </c>
       <c r="E19">
-        <v>0.4766041390512612</v>
+        <v>0.1966427301779561</v>
       </c>
       <c r="F19">
-        <v>0.5568099456927911</v>
+        <v>0.6865786894271153</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.2603474104622556</v>
+        <v>0.5058948480937175</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.242392192266664</v>
+        <v>0.3825626662031709</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8520700728508501</v>
+        <v>0.2935244818015477</v>
       </c>
       <c r="N19">
-        <v>0.5668470537746493</v>
+        <v>1.350745872198591</v>
       </c>
       <c r="O19">
-        <v>1.490783384325823</v>
+        <v>2.305396972678892</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.168738460352955</v>
+        <v>0.3724062825837677</v>
       </c>
       <c r="C20">
-        <v>0.1978522865678372</v>
+        <v>0.06262526439817862</v>
       </c>
       <c r="D20">
-        <v>0.08428010751935489</v>
+        <v>0.03661376293786134</v>
       </c>
       <c r="E20">
-        <v>0.4963272338606401</v>
+        <v>0.2014896777180439</v>
       </c>
       <c r="F20">
-        <v>0.5705384792300947</v>
+        <v>0.6883521149958085</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.2620031324050771</v>
+        <v>0.5049938808297583</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.290445421553102</v>
+        <v>0.3969972480895194</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8870332800601801</v>
+        <v>0.3030544414522538</v>
       </c>
       <c r="N20">
-        <v>0.5539183526540326</v>
+        <v>1.345322700819675</v>
       </c>
       <c r="O20">
-        <v>1.516807655478829</v>
+        <v>2.305931320993409</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.316617339253838</v>
+        <v>0.4164248078425601</v>
       </c>
       <c r="C21">
-        <v>0.221494177421576</v>
+        <v>0.06976743340248959</v>
       </c>
       <c r="D21">
-        <v>0.09315866119938931</v>
+        <v>0.03958652561502163</v>
       </c>
       <c r="E21">
-        <v>0.5637472092126217</v>
+        <v>0.2179142426377325</v>
       </c>
       <c r="F21">
-        <v>0.6181958396564724</v>
+        <v>0.6947968257549064</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.2684499239795493</v>
+        <v>0.5022885362317311</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.452408448786997</v>
+        <v>0.4454433376427858</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.005638372016861</v>
+        <v>0.335166633937007</v>
       </c>
       <c r="N21">
-        <v>0.5119065074099567</v>
+        <v>1.327671359052218</v>
       </c>
       <c r="O21">
-        <v>1.608940462170324</v>
+        <v>2.309291058616964</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.413667699977026</v>
+        <v>0.4451764668426677</v>
       </c>
       <c r="C22">
-        <v>0.2370261278652208</v>
+        <v>0.07441907010725402</v>
       </c>
       <c r="D22">
-        <v>0.09895819891335833</v>
+        <v>0.04151814064772452</v>
       </c>
       <c r="E22">
-        <v>0.6087740346929422</v>
+        <v>0.2287536149551812</v>
       </c>
       <c r="F22">
-        <v>0.6505735169863414</v>
+        <v>0.6993712015774207</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.2733653374765339</v>
+        <v>0.5007604139089992</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.558717436417595</v>
+        <v>0.4770643476340126</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.08411299160025</v>
+        <v>0.3562229420233081</v>
       </c>
       <c r="N22">
-        <v>0.4855616369401135</v>
+        <v>1.316560279304946</v>
       </c>
       <c r="O22">
-        <v>1.672914542843642</v>
+        <v>2.312653406006547</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.361828900727687</v>
+        <v>0.4298328793688313</v>
       </c>
       <c r="C23">
-        <v>0.228728102267965</v>
+        <v>0.07193789940063766</v>
       </c>
       <c r="D23">
-        <v>0.09586304168647075</v>
+        <v>0.04048824220452474</v>
       </c>
       <c r="E23">
-        <v>0.584647169111463</v>
+        <v>0.2229587684464107</v>
       </c>
       <c r="F23">
-        <v>0.6331743704431716</v>
+        <v>0.6968966142794315</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2706747680020918</v>
+        <v>0.5015540341581257</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.501931457268569</v>
+        <v>0.4601915572914095</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.04213417911123</v>
+        <v>0.3449784721319489</v>
       </c>
       <c r="N23">
-        <v>0.4995173667187449</v>
+        <v>1.322451547424496</v>
       </c>
       <c r="O23">
-        <v>1.638408980893701</v>
+        <v>2.31075207914219</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.166327323151137</v>
+        <v>0.3716865712581807</v>
       </c>
       <c r="C24">
-        <v>0.1974670266101981</v>
+        <v>0.0625082593745816</v>
       </c>
       <c r="D24">
-        <v>0.08413491369724824</v>
+        <v>0.03656498703747957</v>
       </c>
       <c r="E24">
-        <v>0.495240053156671</v>
+        <v>0.2012229843448026</v>
       </c>
       <c r="F24">
-        <v>0.5697790327302528</v>
+        <v>0.6882528976267963</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.2619089898438709</v>
+        <v>0.505042147469382</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.287804832787742</v>
+        <v>0.3962047596664888</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8851092835656047</v>
+        <v>0.3025307522238023</v>
       </c>
       <c r="N24">
-        <v>0.5546230876065839</v>
+        <v>1.345618373069105</v>
       </c>
       <c r="O24">
-        <v>1.515361505665055</v>
+        <v>2.305896093327817</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9567670562633452</v>
+        <v>0.3089092496148567</v>
       </c>
       <c r="C25">
-        <v>0.164002918238694</v>
+        <v>0.05226881286985474</v>
       </c>
       <c r="D25">
-        <v>0.07145944286828865</v>
+        <v>0.03228586489769469</v>
       </c>
       <c r="E25">
-        <v>0.4022803103861179</v>
+        <v>0.1782214503703514</v>
       </c>
       <c r="F25">
-        <v>0.5061152906235549</v>
+        <v>0.6804851550020885</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.2551936646045405</v>
+        <v>0.5098339870783803</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.058314895211851</v>
+        <v>0.3270229531894415</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7191292738327277</v>
+        <v>0.2570410035936774</v>
       </c>
       <c r="N25">
-        <v>0.6185301993738144</v>
+        <v>1.372429904822191</v>
       </c>
       <c r="O25">
-        <v>1.397128898488489</v>
+        <v>2.305662644113539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_136/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_136/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2626439540334502</v>
+        <v>0.8031530656104735</v>
       </c>
       <c r="C2">
-        <v>0.04467084256702947</v>
+        <v>0.1394876803215794</v>
       </c>
       <c r="D2">
-        <v>0.02909498636159213</v>
+        <v>0.06209140578447858</v>
       </c>
       <c r="E2">
-        <v>0.1616557201687172</v>
+        <v>0.336151977924402</v>
       </c>
       <c r="F2">
-        <v>0.6761016312668104</v>
+        <v>0.4627096534770487</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.5142466153288936</v>
+        <v>0.2523244910408735</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2759508768186265</v>
+        <v>0.8900909318216748</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2237944772582168</v>
+        <v>0.599085755884829</v>
       </c>
       <c r="N2">
-        <v>1.393739124543001</v>
+        <v>0.6691213628424195</v>
       </c>
       <c r="O2">
-        <v>2.30978727266762</v>
+        <v>1.320840753976938</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2312670127796537</v>
+        <v>0.6992702390071202</v>
       </c>
       <c r="C3">
-        <v>0.03948503063014641</v>
+        <v>0.1229078877908876</v>
       </c>
       <c r="D3">
-        <v>0.02690771662449265</v>
+        <v>0.05571439361089148</v>
       </c>
       <c r="E3">
-        <v>0.1506542875430057</v>
+        <v>0.2924777773371829</v>
       </c>
       <c r="F3">
-        <v>0.6739632195842589</v>
+        <v>0.4351880299789599</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.5177883982839724</v>
+        <v>0.2515455513159779</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2412588829804037</v>
+        <v>0.7763137539733549</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2014137900475674</v>
+        <v>0.5187421690662646</v>
       </c>
       <c r="N3">
-        <v>1.409158980308042</v>
+        <v>0.7054736937886658</v>
       </c>
       <c r="O3">
-        <v>2.315259363369634</v>
+        <v>1.275077932519082</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2119921810154608</v>
+        <v>0.6355344610797999</v>
       </c>
       <c r="C4">
-        <v>0.03628295256983449</v>
+        <v>0.1127319071948278</v>
       </c>
       <c r="D4">
-        <v>0.02555262494102806</v>
+        <v>0.05178310933951735</v>
       </c>
       <c r="E4">
-        <v>0.1440088162510591</v>
+        <v>0.266132811617652</v>
       </c>
       <c r="F4">
-        <v>0.6730606114817874</v>
+        <v>0.4191414972645902</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.5202348931081247</v>
+        <v>0.2516024330172897</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2199201065871534</v>
+        <v>0.7064963363415444</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1877455117827509</v>
+        <v>0.4698066342716345</v>
       </c>
       <c r="N4">
-        <v>1.41910945489443</v>
+        <v>0.7287700081056248</v>
       </c>
       <c r="O4">
-        <v>2.319938753767772</v>
+        <v>1.249669935444942</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.204135634439325</v>
+        <v>0.6095657327863648</v>
       </c>
       <c r="C5">
-        <v>0.03497359817400536</v>
+        <v>0.1085844079153588</v>
       </c>
       <c r="D5">
-        <v>0.02499740016418173</v>
+        <v>0.05017687924850378</v>
       </c>
       <c r="E5">
-        <v>0.1413280663308214</v>
+        <v>0.2555028229897474</v>
       </c>
       <c r="F5">
-        <v>0.6727960059232245</v>
+        <v>0.4128050585194103</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.5213002022678346</v>
+        <v>0.2517545814574582</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2112153133951438</v>
+        <v>0.6780463227585045</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1821940663906929</v>
+        <v>0.4499504351346744</v>
       </c>
       <c r="N5">
-        <v>1.423285683620098</v>
+        <v>0.7385025905129009</v>
       </c>
       <c r="O5">
-        <v>2.322177404874537</v>
+        <v>1.23995912827418</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2028309590987192</v>
+        <v>0.6052536650383615</v>
       </c>
       <c r="C6">
-        <v>0.03475591128278666</v>
+        <v>0.1078956276162302</v>
       </c>
       <c r="D6">
-        <v>0.02490502431923147</v>
+        <v>0.0499099057319512</v>
       </c>
       <c r="E6">
-        <v>0.1408845752026266</v>
+        <v>0.2537437540616381</v>
       </c>
       <c r="F6">
-        <v>0.6727583028703208</v>
+        <v>0.4117648099602604</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.52148122347959</v>
+        <v>0.2517874761424999</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.20976935390172</v>
+        <v>0.673322022532048</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1812733696292668</v>
+        <v>0.4466580907819662</v>
       </c>
       <c r="N6">
-        <v>1.423986470400871</v>
+        <v>0.7401329455048538</v>
       </c>
       <c r="O6">
-        <v>2.322569167673052</v>
+        <v>1.238384554800035</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2118862319836694</v>
+        <v>0.6351842314698501</v>
       </c>
       <c r="C7">
-        <v>0.03626531225560825</v>
+        <v>0.1126759776356749</v>
       </c>
       <c r="D7">
-        <v>0.02554514915100725</v>
+        <v>0.05176146446348895</v>
       </c>
       <c r="E7">
-        <v>0.1439725522974413</v>
+        <v>0.2659890397476232</v>
       </c>
       <c r="F7">
-        <v>0.6730566249812284</v>
+        <v>0.419055236171836</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.5202489835371331</v>
+        <v>0.2516039699658918</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2198027468574963</v>
+        <v>0.7061126569824268</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1876705681960402</v>
+        <v>0.469538518793243</v>
       </c>
       <c r="N7">
-        <v>1.419165285756381</v>
+        <v>0.7289003048430915</v>
       </c>
       <c r="O7">
-        <v>2.319967601763537</v>
+        <v>1.249536410963486</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.251827357537735</v>
+        <v>0.7673190992380512</v>
       </c>
       <c r="C8">
-        <v>0.04288652456448006</v>
+        <v>0.1337690434993704</v>
       </c>
       <c r="D8">
-        <v>0.02834334347544853</v>
+        <v>0.05989573930560255</v>
       </c>
       <c r="E8">
-        <v>0.157839591933282</v>
+        <v>0.3209874566408288</v>
       </c>
       <c r="F8">
-        <v>0.6752791407177909</v>
+        <v>0.4530362644552994</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.5154113981853996</v>
+        <v>0.2519413889161015</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2639971570717137</v>
+        <v>0.8508459007229021</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2160623391304597</v>
+        <v>0.571292408153802</v>
       </c>
       <c r="N8">
-        <v>1.3989557066162</v>
+        <v>0.6814492718755647</v>
       </c>
       <c r="O8">
-        <v>2.311400157977033</v>
+        <v>1.304482686445041</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3300630182176576</v>
+        <v>1.027222840916068</v>
       </c>
       <c r="C9">
-        <v>0.0557271054068309</v>
+        <v>0.1752499867458397</v>
       </c>
       <c r="D9">
-        <v>0.03373357094027796</v>
+        <v>0.07573377622141209</v>
       </c>
       <c r="E9">
-        <v>0.1859112902867537</v>
+        <v>0.4331911289746131</v>
       </c>
       <c r="F9">
-        <v>0.6828940875429765</v>
+        <v>0.5269839232662292</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.5080824076853041</v>
+        <v>0.2571153592020252</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3503481696016308</v>
+        <v>1.135469389474679</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.272325380823446</v>
+        <v>0.7746554342219909</v>
       </c>
       <c r="N9">
-        <v>1.363154859714989</v>
+        <v>0.596434068680884</v>
       </c>
       <c r="O9">
-        <v>2.305073390092559</v>
+        <v>1.435174761226506</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3874736691849989</v>
+        <v>1.219264829046608</v>
       </c>
       <c r="C10">
-        <v>0.06507303656526631</v>
+        <v>0.2059270724139282</v>
       </c>
       <c r="D10">
-        <v>0.03763359301412805</v>
+        <v>0.08731947791098094</v>
       </c>
       <c r="E10">
-        <v>0.2070871077645933</v>
+        <v>0.5191994359983099</v>
       </c>
       <c r="F10">
-        <v>0.6904764574293907</v>
+        <v>0.5865854867583877</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.5040143433520115</v>
+        <v>0.2640586233124544</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4135852775733326</v>
+        <v>1.345781279538272</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3140283333137504</v>
+        <v>0.9274244938388634</v>
       </c>
       <c r="N10">
-        <v>1.339186956067675</v>
+        <v>0.5392993648172166</v>
       </c>
       <c r="O10">
-        <v>2.306819930583089</v>
+        <v>1.54753430868783</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4135734076582196</v>
+        <v>1.307012893512194</v>
       </c>
       <c r="C11">
-        <v>0.06930556936252685</v>
+        <v>0.2199578237361095</v>
       </c>
       <c r="D11">
-        <v>0.03939454736510584</v>
+        <v>0.09258356289941361</v>
       </c>
       <c r="E11">
-        <v>0.2168438565598834</v>
+        <v>0.5593245448704565</v>
       </c>
       <c r="F11">
-        <v>0.6943580956012454</v>
+        <v>0.6150378782978407</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.5024498549214016</v>
+        <v>0.2679921858061718</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4423064552839833</v>
+        <v>1.441888473572249</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.333081777984404</v>
+        <v>0.9978994641853589</v>
       </c>
       <c r="N11">
-        <v>1.328790374165945</v>
+        <v>0.5145650282891603</v>
       </c>
       <c r="O11">
-        <v>2.309005371899985</v>
+        <v>1.602756801554307</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4234539353992943</v>
+        <v>1.340309216628498</v>
       </c>
       <c r="C12">
-        <v>0.0709055646759964</v>
+        <v>0.2252845501128462</v>
       </c>
       <c r="D12">
-        <v>0.0400594538467729</v>
+        <v>0.09457639386571515</v>
       </c>
       <c r="E12">
-        <v>0.2205565188960108</v>
+        <v>0.5746826469840016</v>
       </c>
       <c r="F12">
-        <v>0.6958901599160399</v>
+        <v>0.6260218411539924</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.5018985859326968</v>
+        <v>0.2696014588800679</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4531754927479881</v>
+        <v>1.478359259083732</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3403087657652719</v>
+        <v>1.024749441328801</v>
       </c>
       <c r="N12">
-        <v>1.324926337391293</v>
+        <v>0.505388679046189</v>
       </c>
       <c r="O12">
-        <v>2.310033081221889</v>
+        <v>1.624309033143987</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.42132612258564</v>
+        <v>1.333135025266699</v>
       </c>
       <c r="C13">
-        <v>0.07056110108889868</v>
+        <v>0.2241366944630414</v>
       </c>
       <c r="D13">
-        <v>0.03991634064090022</v>
+        <v>0.09414722142476251</v>
       </c>
       <c r="E13">
-        <v>0.219756127254243</v>
+        <v>0.5713673951476324</v>
       </c>
       <c r="F13">
-        <v>0.6955574373949815</v>
+        <v>0.6236466392523781</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.5020154801200931</v>
+        <v>0.2692494108921188</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4508349721824345</v>
+        <v>1.470500952467802</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.338751777262658</v>
+        <v>1.018959219876848</v>
       </c>
       <c r="N13">
-        <v>1.32575528221219</v>
+        <v>0.507356364193738</v>
       </c>
       <c r="O13">
-        <v>2.309802842954412</v>
+        <v>1.619638051217379</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4143863450374852</v>
+        <v>1.30975076449468</v>
       </c>
       <c r="C14">
-        <v>0.06943725776656606</v>
+        <v>0.2203957681106488</v>
       </c>
       <c r="D14">
-        <v>0.03944928846368612</v>
+        <v>0.09274752355385374</v>
       </c>
       <c r="E14">
-        <v>0.217148937788572</v>
+        <v>0.5605846668891132</v>
       </c>
       <c r="F14">
-        <v>0.6944828934548326</v>
+        <v>0.6159372317146818</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.5024036764404904</v>
+        <v>0.2681221329566412</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4432008015512565</v>
+        <v>1.444887315436745</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3336761089549825</v>
+        <v>1.000105037641987</v>
       </c>
       <c r="N14">
-        <v>1.328471015558748</v>
+        <v>0.513806220833029</v>
       </c>
       <c r="O14">
-        <v>2.309085910598185</v>
+        <v>1.604516779347705</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4101351419607226</v>
+        <v>1.295436472039881</v>
       </c>
       <c r="C15">
-        <v>0.0687485088501063</v>
+        <v>0.2181061962598108</v>
       </c>
       <c r="D15">
-        <v>0.03916295337283771</v>
+        <v>0.0918901053489094</v>
       </c>
       <c r="E15">
-        <v>0.2155543080411846</v>
+        <v>0.5540018566667584</v>
       </c>
       <c r="F15">
-        <v>0.693832800797658</v>
+        <v>0.6112428272974242</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.5026468201459799</v>
+        <v>0.2674474885769378</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4385237194111937</v>
+        <v>1.429208709409494</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.330568659983399</v>
+        <v>0.9885781621131287</v>
       </c>
       <c r="N15">
-        <v>1.330143979919693</v>
+        <v>0.517781976265602</v>
       </c>
       <c r="O15">
-        <v>2.3086728351023</v>
+        <v>1.595339533248961</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3857676135763484</v>
+        <v>1.213539113937372</v>
       </c>
       <c r="C16">
-        <v>0.06479604494694513</v>
+        <v>0.2050118780875749</v>
       </c>
       <c r="D16">
-        <v>0.037518242391954</v>
+        <v>0.08697535947661095</v>
       </c>
       <c r="E16">
-        <v>0.2064519885075526</v>
+        <v>0.516598940088528</v>
       </c>
       <c r="F16">
-        <v>0.6902314835554364</v>
+        <v>0.5847544393979049</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.5041223457639923</v>
+        <v>0.2638178456539393</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4117073206468547</v>
+        <v>1.339510420826855</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3127848063828509</v>
+        <v>0.9228403229557145</v>
       </c>
       <c r="N16">
-        <v>1.339876597074315</v>
+        <v>0.5409418788521501</v>
       </c>
       <c r="O16">
-        <v>2.306705105875835</v>
+        <v>1.54401225596888</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3708143157547568</v>
+        <v>1.163405419633079</v>
       </c>
       <c r="C17">
-        <v>0.06236644434325456</v>
+        <v>0.1970001630598546</v>
       </c>
       <c r="D17">
-        <v>0.03650586517537846</v>
+        <v>0.08395894359458822</v>
       </c>
       <c r="E17">
-        <v>0.2008998488276035</v>
+        <v>0.4939230942300696</v>
       </c>
       <c r="F17">
-        <v>0.6881329327389807</v>
+        <v>0.5688594892172958</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.5051008290861496</v>
+        <v>0.2617953924412966</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3952442840498804</v>
+        <v>1.284604878225053</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3018961272557021</v>
+        <v>0.8827781423205892</v>
       </c>
       <c r="N17">
-        <v>1.345977037666801</v>
+        <v>0.5554779911679009</v>
       </c>
       <c r="O17">
-        <v>2.305854301370744</v>
+        <v>1.513611497044081</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3622120355556433</v>
+        <v>1.134605497905909</v>
       </c>
       <c r="C18">
-        <v>0.06096721865567645</v>
+        <v>0.1923989763894696</v>
       </c>
       <c r="D18">
-        <v>0.03592233347639251</v>
+        <v>0.0822233652702522</v>
       </c>
       <c r="E18">
-        <v>0.1977180424039346</v>
+        <v>0.4809733436828907</v>
       </c>
       <c r="F18">
-        <v>0.6869665997379855</v>
+        <v>0.5598421112475691</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.5056905536538139</v>
+        <v>0.2607045538746355</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3857709079174185</v>
+        <v>1.253064701426496</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2956410188877854</v>
+        <v>0.859826235363947</v>
       </c>
       <c r="N18">
-        <v>1.349533522306449</v>
+        <v>0.5639564545922247</v>
       </c>
       <c r="O18">
-        <v>2.305495855276575</v>
+        <v>1.496509422206827</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3592992016785104</v>
+        <v>1.124860100806501</v>
       </c>
       <c r="C19">
-        <v>0.06049315986844306</v>
+        <v>0.1908422063528121</v>
       </c>
       <c r="D19">
-        <v>0.035724547847515</v>
+        <v>0.08163561242398032</v>
       </c>
       <c r="E19">
-        <v>0.1966427301779561</v>
+        <v>0.4766041390512683</v>
       </c>
       <c r="F19">
-        <v>0.6865786894271153</v>
+        <v>0.5568099456927769</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.5058948480937175</v>
+        <v>0.2603474104622734</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3825626662031709</v>
+        <v>1.242392192266692</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2935244818015477</v>
+        <v>0.852070072850843</v>
       </c>
       <c r="N19">
-        <v>1.350745872198591</v>
+        <v>0.566847053774598</v>
       </c>
       <c r="O19">
-        <v>2.305396972678892</v>
+        <v>1.49078338432588</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3724062825837677</v>
+        <v>1.16873846035304</v>
       </c>
       <c r="C20">
-        <v>0.06262526439817862</v>
+        <v>0.1978522865682208</v>
       </c>
       <c r="D20">
-        <v>0.03661376293786134</v>
+        <v>0.0842801075193691</v>
       </c>
       <c r="E20">
-        <v>0.2014896777180439</v>
+        <v>0.4963272338606473</v>
       </c>
       <c r="F20">
-        <v>0.6883521149958085</v>
+        <v>0.5705384792300947</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.5049938808297583</v>
+        <v>0.2620031324050771</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3969972480895194</v>
+        <v>1.290445421553102</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3030544414522538</v>
+        <v>0.8870332800601659</v>
       </c>
       <c r="N20">
-        <v>1.345322700819675</v>
+        <v>0.5539183526540379</v>
       </c>
       <c r="O20">
-        <v>2.305931320993409</v>
+        <v>1.5168076554788</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4164248078425601</v>
+        <v>1.316617339253867</v>
       </c>
       <c r="C21">
-        <v>0.06976743340248959</v>
+        <v>0.221494177421576</v>
       </c>
       <c r="D21">
-        <v>0.03958652561502163</v>
+        <v>0.09315866119933247</v>
       </c>
       <c r="E21">
-        <v>0.2179142426377325</v>
+        <v>0.5637472092126359</v>
       </c>
       <c r="F21">
-        <v>0.6947968257549064</v>
+        <v>0.6181958396564582</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.5022885362317311</v>
+        <v>0.2684499239795599</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4454433376427858</v>
+        <v>1.452408448787025</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.335166633937007</v>
+        <v>1.005638372016847</v>
       </c>
       <c r="N21">
-        <v>1.327671359052218</v>
+        <v>0.5119065074100195</v>
       </c>
       <c r="O21">
-        <v>2.309291058616964</v>
+        <v>1.608940462170267</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4451764668426677</v>
+        <v>1.413667699977225</v>
       </c>
       <c r="C22">
-        <v>0.07441907010725402</v>
+        <v>0.237026127865434</v>
       </c>
       <c r="D22">
-        <v>0.04151814064772452</v>
+        <v>0.09895819891325175</v>
       </c>
       <c r="E22">
-        <v>0.2287536149551812</v>
+        <v>0.6087740346929564</v>
       </c>
       <c r="F22">
-        <v>0.6993712015774207</v>
+        <v>0.6505735169863414</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.5007604139089992</v>
+        <v>0.2733653374765375</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4770643476340126</v>
+        <v>1.558717436417567</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3562229420233081</v>
+        <v>1.084112991600243</v>
       </c>
       <c r="N22">
-        <v>1.316560279304946</v>
+        <v>0.4855616369401057</v>
       </c>
       <c r="O22">
-        <v>2.312653406006547</v>
+        <v>1.672914542843642</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4298328793688313</v>
+        <v>1.361828900727886</v>
       </c>
       <c r="C23">
-        <v>0.07193789940063766</v>
+        <v>0.2287281022681356</v>
       </c>
       <c r="D23">
-        <v>0.04048824220452474</v>
+        <v>0.09586304168623627</v>
       </c>
       <c r="E23">
-        <v>0.2229587684464107</v>
+        <v>0.5846471691114701</v>
       </c>
       <c r="F23">
-        <v>0.6968966142794315</v>
+        <v>0.6331743704431716</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.5015540341581257</v>
+        <v>0.2706747680021238</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4601915572914095</v>
+        <v>1.501931457268597</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3449784721319489</v>
+        <v>1.04213417911123</v>
       </c>
       <c r="N23">
-        <v>1.322451547424496</v>
+        <v>0.4995173667187969</v>
       </c>
       <c r="O23">
-        <v>2.31075207914219</v>
+        <v>1.638408980893729</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3716865712581807</v>
+        <v>1.166327323151108</v>
       </c>
       <c r="C24">
-        <v>0.0625082593745816</v>
+        <v>0.1974670266103544</v>
       </c>
       <c r="D24">
-        <v>0.03656498703747957</v>
+        <v>0.08413491369725534</v>
       </c>
       <c r="E24">
-        <v>0.2012229843448026</v>
+        <v>0.4952400531566852</v>
       </c>
       <c r="F24">
-        <v>0.6882528976267963</v>
+        <v>0.5697790327302386</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.505042147469382</v>
+        <v>0.2619089898438602</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3962047596664888</v>
+        <v>1.287804832787884</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3025307522238023</v>
+        <v>0.885109283565626</v>
       </c>
       <c r="N24">
-        <v>1.345618373069105</v>
+        <v>0.5546230876065161</v>
       </c>
       <c r="O24">
-        <v>2.305896093327817</v>
+        <v>1.515361505665084</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3089092496148567</v>
+        <v>0.9567670562633452</v>
       </c>
       <c r="C25">
-        <v>0.05226881286985474</v>
+        <v>0.1640029182386655</v>
       </c>
       <c r="D25">
-        <v>0.03228586489769469</v>
+        <v>0.0714594428682247</v>
       </c>
       <c r="E25">
-        <v>0.1782214503703514</v>
+        <v>0.4022803103861108</v>
       </c>
       <c r="F25">
-        <v>0.6804851550020885</v>
+        <v>0.5061152906235407</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.5098339870783803</v>
+        <v>0.2551936646045618</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3270229531894415</v>
+        <v>1.058314895211993</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2570410035936774</v>
+        <v>0.7191292738327277</v>
       </c>
       <c r="N25">
-        <v>1.372429904822191</v>
+        <v>0.6185301993738027</v>
       </c>
       <c r="O25">
-        <v>2.305662644113539</v>
+        <v>1.397128898488546</v>
       </c>
     </row>
   </sheetData>
